--- a/resources/experiment 1/predictions/multiple/LinearRegression/incidence/Enfermedades cardíacas (INC).xlsx
+++ b/resources/experiment 1/predictions/multiple/LinearRegression/incidence/Enfermedades cardíacas (INC).xlsx
@@ -538,16 +538,16 @@
         <v>3.190241653143763</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02757599559424481</v>
+        <v>0.02757599559424477</v>
       </c>
       <c r="C3" t="n">
         <v>13.41149298136574</v>
       </c>
       <c r="D3" t="n">
-        <v>6.172506529703293</v>
+        <v>6.172506529703295</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2717525771450535</v>
+        <v>0.2717525771450536</v>
       </c>
       <c r="F3" t="n">
         <v>15.91940953756488</v>
@@ -559,7 +559,7 @@
         <v>0.1477877982834814</v>
       </c>
       <c r="I3" t="n">
-        <v>16.93644090359276</v>
+        <v>16.93644090359277</v>
       </c>
       <c r="J3" t="n">
         <v>1.54012239987816</v>
@@ -576,10 +576,10 @@
         <v>4.432140469794511</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01060409940556908</v>
+        <v>0.01060409940556906</v>
       </c>
       <c r="C4" t="n">
-        <v>17.57529676520589</v>
+        <v>17.5752967652059</v>
       </c>
       <c r="D4" t="n">
         <v>8.35728536051159</v>
@@ -597,7 +597,7 @@
         <v>0.2184641572081575</v>
       </c>
       <c r="I4" t="n">
-        <v>24.62285886701623</v>
+        <v>24.62285886701624</v>
       </c>
       <c r="J4" t="n">
         <v>2.404387408742862</v>
@@ -614,7 +614,7 @@
         <v>3.605383589859892</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04709259662743789</v>
+        <v>0.04709259662743787</v>
       </c>
       <c r="C5" t="n">
         <v>14.568723447434</v>
@@ -635,7 +635,7 @@
         <v>0.1979042098357569</v>
       </c>
       <c r="I5" t="n">
-        <v>19.91926490469237</v>
+        <v>19.91926490469238</v>
       </c>
       <c r="J5" t="n">
         <v>1.834868836390595</v>
@@ -652,7 +652,7 @@
         <v>6.333648946302269</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07491472258334594</v>
+        <v>0.07491472258334592</v>
       </c>
       <c r="C6" t="n">
         <v>23.85644265009464</v>
@@ -728,7 +728,7 @@
         <v>13.35911163330758</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221182405590371</v>
+        <v>0.2211824055903711</v>
       </c>
       <c r="C8" t="n">
         <v>49.13806713107953</v>
@@ -766,7 +766,7 @@
         <v>6.15067581446608</v>
       </c>
       <c r="B9" t="n">
-        <v>0.09982816727785805</v>
+        <v>0.09982816727785801</v>
       </c>
       <c r="C9" t="n">
         <v>23.53215835169129</v>
@@ -816,7 +816,7 @@
         <v>1.743654757609166</v>
       </c>
       <c r="F10" t="n">
-        <v>59.24617392520309</v>
+        <v>59.2461739252031</v>
       </c>
       <c r="G10" t="n">
         <v>26.76473915200361</v>
@@ -825,10 +825,10 @@
         <v>0.9216749785010359</v>
       </c>
       <c r="I10" t="n">
-        <v>71.60725150703981</v>
+        <v>71.60725150703979</v>
       </c>
       <c r="J10" t="n">
-        <v>7.446741781400772</v>
+        <v>7.446741781400773</v>
       </c>
       <c r="K10" t="n">
         <v>0.05709461318908719</v>
@@ -863,7 +863,7 @@
         <v>0.7014020077652806</v>
       </c>
       <c r="I11" t="n">
-        <v>54.17553142384326</v>
+        <v>54.17553142384325</v>
       </c>
       <c r="J11" t="n">
         <v>5.516153071026308</v>
@@ -901,10 +901,10 @@
         <v>0.5518053959542013</v>
       </c>
       <c r="I12" t="n">
-        <v>44.43022930407019</v>
+        <v>44.4302293040702</v>
       </c>
       <c r="J12" t="n">
-        <v>4.449829369516547</v>
+        <v>4.449829369516546</v>
       </c>
       <c r="K12" t="n">
         <v>0.0327753567117534</v>
@@ -994,28 +994,28 @@
         <v>4.020525526576021</v>
       </c>
       <c r="B15" t="n">
-        <v>0.066609197660631</v>
+        <v>0.06660919766063095</v>
       </c>
       <c r="C15" t="n">
         <v>15.72595391350226</v>
       </c>
       <c r="D15" t="n">
-        <v>8.948617774684717</v>
+        <v>8.948617774684719</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6497881875598805</v>
+        <v>0.6497881875598804</v>
       </c>
       <c r="F15" t="n">
         <v>21.45616128529347</v>
       </c>
       <c r="G15" t="n">
-        <v>7.643358335418744</v>
+        <v>7.643358335418743</v>
       </c>
       <c r="H15" t="n">
         <v>0.2480206213880324</v>
       </c>
       <c r="I15" t="n">
-        <v>22.90208890579198</v>
+        <v>22.90208890579199</v>
       </c>
       <c r="J15" t="n">
         <v>2.12961527290303</v>
@@ -1059,7 +1059,7 @@
         <v>3.448300729728212</v>
       </c>
       <c r="K16" t="n">
-        <v>0.007501049572883119</v>
+        <v>0.007501049572883115</v>
       </c>
       <c r="L16" t="n">
         <v>14.25904553034632</v>
@@ -1070,7 +1070,7 @@
         <v>8.002988617930084</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09479530003341761</v>
+        <v>0.0947953000334176</v>
       </c>
       <c r="C17" t="n">
         <v>29.30464236731845</v>
@@ -1108,7 +1108,7 @@
         <v>4.407542633272636</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.02406764580553958</v>
+        <v>-0.02406764580553961</v>
       </c>
       <c r="C18" t="n">
         <v>17.3209658305751</v>
@@ -1129,7 +1129,7 @@
         <v>0.2017897842041568</v>
       </c>
       <c r="I18" t="n">
-        <v>25.37849024015174</v>
+        <v>25.37849024015175</v>
       </c>
       <c r="J18" t="n">
         <v>2.509375945802063</v>
@@ -1167,7 +1167,7 @@
         <v>0.7431812328155557</v>
       </c>
       <c r="I19" t="n">
-        <v>57.53617111151063</v>
+        <v>57.53617111151062</v>
       </c>
       <c r="J19" t="n">
         <v>5.863393776068344</v>
@@ -1184,7 +1184,7 @@
         <v>6.748790883018398</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09443132361653904</v>
+        <v>0.09443132361653901</v>
       </c>
       <c r="C20" t="n">
         <v>25.0136731161629</v>
@@ -1193,7 +1193,7 @@
         <v>14.44777002122302</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9970538930378899</v>
+        <v>0.9970538930378898</v>
       </c>
       <c r="F20" t="n">
         <v>32.60460843319898</v>
@@ -1205,7 +1205,7 @@
         <v>0.4394431045195234</v>
       </c>
       <c r="I20" t="n">
-        <v>38.63288977348548</v>
+        <v>38.63288977348549</v>
       </c>
       <c r="J20" t="n">
         <v>3.848035703299848</v>
@@ -1222,7 +1222,7 @@
         <v>5.287022179748647</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0843090466830639</v>
+        <v>0.08430904668306387</v>
       </c>
       <c r="C21" t="n">
         <v>20.14408863197321</v>
@@ -1243,13 +1243,13 @@
         <v>0.3353713533167092</v>
       </c>
       <c r="I21" t="n">
-        <v>29.83287549607995</v>
+        <v>29.83287549607996</v>
       </c>
       <c r="J21" t="n">
         <v>2.88889174470853</v>
       </c>
       <c r="K21" t="n">
-        <v>0.004772661009610116</v>
+        <v>0.004772661009610119</v>
       </c>
       <c r="L21" t="n">
         <v>12.22050137840909</v>
@@ -1260,7 +1260,7 @@
         <v>13.82344924306746</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3100424970457814</v>
+        <v>0.3100424970457815</v>
       </c>
       <c r="C22" t="n">
         <v>50.80395946640937</v>
@@ -1278,10 +1278,10 @@
         <v>27.1470233122674</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9550703707791741</v>
+        <v>0.955070370779174</v>
       </c>
       <c r="I22" t="n">
-        <v>72.72084782102186</v>
+        <v>72.72084782102185</v>
       </c>
       <c r="J22" t="n">
         <v>7.541620731127389</v>
@@ -1298,7 +1298,7 @@
         <v>4.178900821890333</v>
       </c>
       <c r="B23" t="n">
-        <v>0.007024007755010248</v>
+        <v>0.007024007755010192</v>
       </c>
       <c r="C23" t="n">
         <v>15.79590727727481</v>
@@ -1319,7 +1319,7 @@
         <v>0.2397300811561686</v>
       </c>
       <c r="I23" t="n">
-        <v>25.9047636526128</v>
+        <v>25.90476365261281</v>
       </c>
       <c r="J23" t="n">
         <v>2.486965565277651</v>
@@ -1328,7 +1328,7 @@
         <v>0.01153029485364617</v>
       </c>
       <c r="L23" t="n">
-        <v>10.84596292776827</v>
+        <v>10.84596292776826</v>
       </c>
     </row>
     <row r="24">
@@ -1363,7 +1363,7 @@
         <v>3.395806461198611</v>
       </c>
       <c r="K24" t="n">
-        <v>0.004339042103780097</v>
+        <v>0.0043390421037801</v>
       </c>
       <c r="L24" t="n">
         <v>14.03771029658085</v>
@@ -1374,7 +1374,7 @@
         <v>5.930805927847078</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07273399415570718</v>
+        <v>0.07273399415570715</v>
       </c>
       <c r="C25" t="n">
         <v>22.82637765134177</v>
@@ -1395,7 +1395,7 @@
         <v>0.3475474679169728</v>
       </c>
       <c r="I25" t="n">
-        <v>32.2894260847185</v>
+        <v>32.28942608471851</v>
       </c>
       <c r="J25" t="n">
         <v>3.206048561745377</v>
@@ -1412,7 +1412,7 @@
         <v>5.237826506704893</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01496555626084661</v>
+        <v>0.01496555626084659</v>
       </c>
       <c r="C26" t="n">
         <v>19.63542676271163</v>
@@ -1433,7 +1433,7 @@
         <v>0.3020226073087077</v>
       </c>
       <c r="I26" t="n">
-        <v>31.34413824235096</v>
+        <v>31.34413824235097</v>
       </c>
       <c r="J26" t="n">
         <v>3.098868818826933</v>
@@ -1462,16 +1462,16 @@
         <v>1.99822935259975</v>
       </c>
       <c r="F27" t="n">
-        <v>60.56359910267399</v>
+        <v>60.56359910267398</v>
       </c>
       <c r="G27" t="n">
         <v>27.18854776303181</v>
       </c>
       <c r="H27" t="n">
-        <v>0.942940902449047</v>
+        <v>0.9429409024490469</v>
       </c>
       <c r="I27" t="n">
-        <v>72.88915629263637</v>
+        <v>72.88915629263636</v>
       </c>
       <c r="J27" t="n">
         <v>7.529319937935561</v>
@@ -1512,7 +1512,7 @@
         <v>46.13114851957324</v>
       </c>
       <c r="J28" t="n">
-        <v>4.661997649494191</v>
+        <v>4.661997649494192</v>
       </c>
       <c r="K28" t="n">
         <v>0.01731112542219186</v>
@@ -1526,7 +1526,7 @@
         <v>4.386471790248398</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01678230827160679</v>
+        <v>0.01678230827160676</v>
       </c>
       <c r="C29" t="n">
         <v>16.37452251030894</v>
@@ -1541,16 +1541,16 @@
         <v>23.07032131643271</v>
       </c>
       <c r="G29" t="n">
-        <v>9.476097180420835</v>
+        <v>9.476097180420833</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2647882869323064</v>
+        <v>0.2647882869323063</v>
       </c>
       <c r="I29" t="n">
         <v>27.39617565316261</v>
       </c>
       <c r="J29" t="n">
-        <v>2.634338783533869</v>
+        <v>2.634338783533868</v>
       </c>
       <c r="K29" t="n">
         <v>0.01904560104551194</v>
@@ -1629,7 +1629,7 @@
         <v>6.338033398693994</v>
       </c>
       <c r="K31" t="n">
-        <v>0.05360855227798448</v>
+        <v>0.05360855227798449</v>
       </c>
       <c r="L31" t="n">
         <v>25.44905079519195</v>
@@ -1652,7 +1652,7 @@
         <v>1.635594659490174</v>
       </c>
       <c r="F32" t="n">
-        <v>54.50832130005704</v>
+        <v>54.50832130005705</v>
       </c>
       <c r="G32" t="n">
         <v>23.85289959574686</v>
@@ -1728,7 +1728,7 @@
         <v>1.454229418424858</v>
       </c>
       <c r="F34" t="n">
-        <v>44.61871746314827</v>
+        <v>44.61871746314826</v>
       </c>
       <c r="G34" t="n">
         <v>19.52119961873607</v>
@@ -1772,7 +1772,7 @@
         <v>12.93295218569499</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4310592717473864</v>
+        <v>0.4310592717473863</v>
       </c>
       <c r="I35" t="n">
         <v>36.38584639980017</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.469995311584834</v>
+        <v>5.469995311584835</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0593956019885518</v>
+        <v>0.05939560198855177</v>
       </c>
       <c r="C37" t="n">
         <v>20.46837293037655</v>
@@ -1918,7 +1918,7 @@
         <v>1.309532713669547</v>
       </c>
       <c r="F39" t="n">
-        <v>39.59231087732096</v>
+        <v>39.59231087732095</v>
       </c>
       <c r="G39" t="n">
         <v>16.78738848322507</v>
@@ -1930,7 +1930,7 @@
         <v>46.29945699118775</v>
       </c>
       <c r="J39" t="n">
-        <v>4.649696856302365</v>
+        <v>4.649696856302364</v>
       </c>
       <c r="K39" t="n">
         <v>0.04345267037272219</v>
@@ -1944,16 +1944,16 @@
         <v>4.847282406510641</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03012070043876217</v>
+        <v>0.03012070043876214</v>
       </c>
       <c r="C40" t="n">
         <v>18.73252723127416</v>
       </c>
       <c r="D40" t="n">
-        <v>9.745340983002302</v>
+        <v>9.745340983002301</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5321938738351391</v>
+        <v>0.5321938738351392</v>
       </c>
       <c r="F40" t="n">
         <v>23.13708407589396</v>
@@ -1994,7 +1994,7 @@
         <v>0.8505393961662979</v>
       </c>
       <c r="F41" t="n">
-        <v>36.02503588087412</v>
+        <v>36.02503588087413</v>
       </c>
       <c r="G41" t="n">
         <v>16.33735255342459</v>
@@ -2058,7 +2058,7 @@
         <v>7.79541764957202</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08503699951682107</v>
+        <v>0.08503699951682106</v>
       </c>
       <c r="C43" t="n">
         <v>28.72602713428432</v>
@@ -2096,7 +2096,7 @@
         <v>9.57192059205064</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1854187311286266</v>
+        <v>0.1854187311286267</v>
       </c>
       <c r="C44" t="n">
         <v>36.01082844298207</v>
@@ -2108,7 +2108,7 @@
         <v>1.141782527466887</v>
       </c>
       <c r="F44" t="n">
-        <v>42.20565830942648</v>
+        <v>42.20565830942649</v>
       </c>
       <c r="G44" t="n">
         <v>18.35905000595258</v>
@@ -2146,7 +2146,7 @@
         <v>1.562289516543849</v>
       </c>
       <c r="F45" t="n">
-        <v>49.35657008829432</v>
+        <v>49.35657008829431</v>
       </c>
       <c r="G45" t="n">
         <v>22.43303917499282</v>
@@ -2199,7 +2199,7 @@
         <v>6.190660180437776</v>
       </c>
       <c r="K46" t="n">
-        <v>0.04609324608611871</v>
+        <v>0.04609324608611872</v>
       </c>
       <c r="L46" t="n">
         <v>24.73222155451366</v>
@@ -2231,7 +2231,7 @@
         <v>0.9551170170493106</v>
       </c>
       <c r="I47" t="n">
-        <v>75.34570688127492</v>
+        <v>75.34570688127491</v>
       </c>
       <c r="J47" t="n">
         <v>7.846476754972409</v>
@@ -2286,13 +2286,13 @@
         <v>4.67660819293539</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07237001773882859</v>
+        <v>0.07237001773882856</v>
       </c>
       <c r="C49" t="n">
         <v>18.53540840018621</v>
       </c>
       <c r="D49" t="n">
-        <v>9.486879945433303</v>
+        <v>9.486879945433301</v>
       </c>
       <c r="E49" t="n">
         <v>0.5475947911403909</v>
@@ -2307,7 +2307,7 @@
         <v>0.2685339224902964</v>
       </c>
       <c r="I49" t="n">
-        <v>24.98082380786278</v>
+        <v>24.98082380786279</v>
       </c>
       <c r="J49" t="n">
         <v>2.394277821410277</v>
@@ -2324,7 +2324,7 @@
         <v>5.494593148106711</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09406734719966045</v>
+        <v>0.09406734719966042</v>
       </c>
       <c r="C50" t="n">
         <v>20.72270386500734</v>
@@ -2342,7 +2342,7 @@
         <v>10.93748205193928</v>
       </c>
       <c r="H50" t="n">
-        <v>0.360429559092847</v>
+        <v>0.3604295590928469</v>
       </c>
       <c r="I50" t="n">
         <v>31.32428749662976</v>
@@ -2359,10 +2359,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.165643816621886</v>
+        <v>3.165643816621887</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.00709574961686385</v>
+        <v>-0.007095749616863878</v>
       </c>
       <c r="C51" t="n">
         <v>13.15716204673495</v>
@@ -2371,7 +2371,7 @@
         <v>5.882128680585723</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1984793638724145</v>
+        <v>0.1984793638724146</v>
       </c>
       <c r="F51" t="n">
         <v>15.34230161620236</v>
@@ -2383,13 +2383,13 @@
         <v>0.1311134252794807</v>
       </c>
       <c r="I51" t="n">
-        <v>17.69207227672826</v>
+        <v>17.69207227672827</v>
       </c>
       <c r="J51" t="n">
-        <v>1.645110936937361</v>
+        <v>1.645110936937362</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.03237025104388869</v>
+        <v>-0.03237025104388867</v>
       </c>
       <c r="L51" t="n">
         <v>6.819146256845874</v>
@@ -2438,10 +2438,10 @@
         <v>8.210559586288149</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1045536005500142</v>
+        <v>0.1045536005500141</v>
       </c>
       <c r="C53" t="n">
-        <v>29.88325760035259</v>
+        <v>29.88325760035258</v>
       </c>
       <c r="D53" t="n">
         <v>17.47176558783546</v>
@@ -2465,7 +2465,7 @@
         <v>4.807179661891166</v>
       </c>
       <c r="K53" t="n">
-        <v>0.05293869278003125</v>
+        <v>0.05293869278003124</v>
       </c>
       <c r="L53" t="n">
         <v>20.05024758005857</v>
@@ -2476,7 +2476,7 @@
         <v>3.995927690054144</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03193745244952234</v>
+        <v>0.03193745244952231</v>
       </c>
       <c r="C54" t="n">
         <v>15.47162297887147</v>
@@ -2488,7 +2488,7 @@
         <v>0.5765149742872415</v>
       </c>
       <c r="F54" t="n">
-        <v>20.87905336393094</v>
+        <v>20.87905336393095</v>
       </c>
       <c r="G54" t="n">
         <v>7.999415176910251</v>
@@ -2497,13 +2497,13 @@
         <v>0.2313462483840316</v>
       </c>
       <c r="I54" t="n">
-        <v>23.65772027892749</v>
+        <v>23.6577202789275</v>
       </c>
       <c r="J54" t="n">
         <v>2.234603809962232</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.002309026276425631</v>
+        <v>-0.002309026276425624</v>
       </c>
       <c r="L54" t="n">
         <v>9.686463219559043</v>
@@ -2514,7 +2514,7 @@
         <v>5.274723261487708</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06697317407750958</v>
+        <v>0.06697317407750955</v>
       </c>
       <c r="C55" t="n">
         <v>20.01692316465781</v>
@@ -2523,7 +2523,7 @@
         <v>11.2785855300518</v>
       </c>
       <c r="E55" t="n">
-        <v>0.757848285678872</v>
+        <v>0.7578482856788721</v>
       </c>
       <c r="F55" t="n">
         <v>26.19401391043952</v>
@@ -2532,16 +2532,16 @@
         <v>10.5551978916755</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3270341668147089</v>
+        <v>0.3270341668147088</v>
       </c>
       <c r="I55" t="n">
-        <v>30.2106911826477</v>
+        <v>30.21069118264771</v>
       </c>
       <c r="J55" t="n">
         <v>2.941386013238131</v>
       </c>
       <c r="K55" t="n">
-        <v>0.007934668478713134</v>
+        <v>0.007934668478713137</v>
       </c>
       <c r="L55" t="n">
         <v>12.44183661217456</v>
@@ -2590,13 +2590,13 @@
         <v>12.33708270327583</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2652484749011976</v>
+        <v>0.2652484749011977</v>
       </c>
       <c r="C57" t="n">
         <v>45.68004404758889</v>
       </c>
       <c r="D57" t="n">
-        <v>25.06376464778243</v>
+        <v>25.06376464778242</v>
       </c>
       <c r="E57" t="n">
         <v>1.598958052853855</v>
@@ -2614,10 +2614,10 @@
         <v>64.67646491675183</v>
       </c>
       <c r="J57" t="n">
-        <v>6.687465309595272</v>
+        <v>6.687465309595273</v>
       </c>
       <c r="K57" t="n">
-        <v>0.04368891096484541</v>
+        <v>0.0436889109648454</v>
       </c>
       <c r="L57" t="n">
         <v>26.60225401206731</v>
@@ -2628,7 +2628,7 @@
         <v>5.457696393323896</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04205972938299748</v>
+        <v>0.04205972938299744</v>
       </c>
       <c r="C58" t="n">
         <v>20.34120746306115</v>
@@ -2637,7 +2637,7 @@
         <v>11.68223549217958</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7790839750099398</v>
+        <v>0.7790839750099399</v>
       </c>
       <c r="F58" t="n">
         <v>27.00109392600914</v>
@@ -2704,7 +2704,7 @@
         <v>4.215797576673148</v>
       </c>
       <c r="B60" t="n">
-        <v>0.05903162557167321</v>
+        <v>0.05903162557167317</v>
       </c>
       <c r="C60" t="n">
         <v>16.17740367922099</v>
@@ -2725,10 +2725,10 @@
         <v>0.2647416406621698</v>
       </c>
       <c r="I60" t="n">
-        <v>24.77131659290954</v>
+        <v>24.77131659290955</v>
       </c>
       <c r="J60" t="n">
-        <v>2.329482759688848</v>
+        <v>2.329482759688849</v>
       </c>
       <c r="K60" t="n">
         <v>0.002044272446337116</v>
@@ -2742,7 +2742,7 @@
         <v>11.66870111865552</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2421517822174457</v>
+        <v>0.2421517822174458</v>
       </c>
       <c r="C61" t="n">
         <v>42.74342409358955</v>
@@ -2856,7 +2856,7 @@
         <v>4.20349865841221</v>
       </c>
       <c r="B64" t="n">
-        <v>0.04169575296611888</v>
+        <v>0.04169575296611884</v>
       </c>
       <c r="C64" t="n">
         <v>16.0502382119056</v>
@@ -2877,13 +2877,13 @@
         <v>0.2564044541601694</v>
       </c>
       <c r="I64" t="n">
-        <v>25.14913227947729</v>
+        <v>25.1491322794773</v>
       </c>
       <c r="J64" t="n">
         <v>2.381977028218449</v>
       </c>
       <c r="K64" t="n">
-        <v>0.005206279915440135</v>
+        <v>0.005206279915440138</v>
       </c>
       <c r="L64" t="n">
         <v>10.40329246023733</v>
@@ -2918,10 +2918,10 @@
         <v>63.56286860276978</v>
       </c>
       <c r="J65" t="n">
-        <v>6.592586359868655</v>
+        <v>6.592586359868656</v>
       </c>
       <c r="K65" t="n">
-        <v>0.03933561224208267</v>
+        <v>0.03933561224208266</v>
       </c>
       <c r="L65" t="n">
         <v>26.10676000515448</v>
@@ -3005,10 +3005,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5.091750129651519</v>
+        <v>5.09175012965152</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09188661877202167</v>
+        <v>0.09188661877202164</v>
       </c>
       <c r="C68" t="n">
         <v>19.69263886625448</v>
@@ -3026,10 +3026,10 @@
         <v>9.638828469174452</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3186503340425719</v>
+        <v>0.3186503340425718</v>
       </c>
       <c r="I68" t="n">
-        <v>27.96364780896239</v>
+        <v>27.9636478089624</v>
       </c>
       <c r="J68" t="n">
         <v>2.689024257922712</v>
@@ -3058,7 +3058,7 @@
         <v>1.969309169452899</v>
       </c>
       <c r="F69" t="n">
-        <v>62.30310375974865</v>
+        <v>62.30310375974864</v>
       </c>
       <c r="G69" t="n">
         <v>27.70733589327694</v>
@@ -3067,7 +3067,7 @@
         <v>0.9801285765553118</v>
       </c>
       <c r="I69" t="n">
-        <v>74.21225982157166</v>
+        <v>74.21225982157165</v>
       </c>
       <c r="J69" t="n">
         <v>7.688993949383606</v>
@@ -3081,19 +3081,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.834983488249702</v>
+        <v>4.834983488249703</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01278482783320783</v>
+        <v>0.01278482783320781</v>
       </c>
       <c r="C70" t="n">
         <v>18.60536176395876</v>
       </c>
       <c r="D70" t="n">
-        <v>9.600152058443516</v>
+        <v>9.600152058443514</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4955572671988195</v>
+        <v>0.4955572671988197</v>
       </c>
       <c r="F70" t="n">
         <v>22.8485301152127</v>
@@ -3105,7 +3105,7 @@
         <v>0.2602433822584326</v>
       </c>
       <c r="I70" t="n">
-        <v>27.9834985546836</v>
+        <v>27.98349855468361</v>
       </c>
       <c r="J70" t="n">
         <v>2.751628113784897</v>
@@ -3122,7 +3122,7 @@
         <v>7.002030530922577</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09801141526709786</v>
+        <v>0.09801141526709785</v>
       </c>
       <c r="C71" t="n">
         <v>26.79306260409398</v>
@@ -3131,7 +3131,7 @@
         <v>13.74316549403968</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7424792980473064</v>
+        <v>0.7424792980473063</v>
       </c>
       <c r="F71" t="n">
         <v>31.28718325572808</v>
@@ -3143,7 +3143,7 @@
         <v>0.4181771805715123</v>
       </c>
       <c r="I71" t="n">
-        <v>37.35098498788891</v>
+        <v>37.35098498788892</v>
       </c>
       <c r="J71" t="n">
         <v>3.765457546765059</v>
